--- a/placement_examen_eee.xlsx
+++ b/placement_examen_eee.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="247">
-  <si>
-    <t xml:space="preserve">Examen -mat - datGroupe(s) participant(s) :C B </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="262">
+  <si>
+    <t xml:space="preserve">Examen -mat - 191919Groupe(s) participant(s) :B C </t>
   </si>
   <si>
     <t>ID</t>
@@ -46,31 +46,712 @@
     <t>1</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BANDOGAR</t>
+  </si>
+  <si>
+    <t>ronjo</t>
+  </si>
+  <si>
+    <t>Amphi 1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DESROCHES</t>
+  </si>
+  <si>
+    <t>francis</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>RATTÉ</t>
+  </si>
+  <si>
+    <t>jeanne</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>LACROIX</t>
+  </si>
+  <si>
+    <t>vivienne</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>PELOC</t>
+  </si>
+  <si>
+    <t>hepaul</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CLAVET</t>
+  </si>
+  <si>
+    <t>russel</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>BRYTFREA</t>
+  </si>
+  <si>
+    <t>anne cécile</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>ARSAN</t>
+  </si>
+  <si>
+    <t>deonmannen</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>CYNBETH</t>
+  </si>
+  <si>
+    <t>pepette</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ARISUM</t>
+  </si>
+  <si>
+    <t>zonea</t>
+  </si>
+  <si>
+    <t>AUDIBERT</t>
+  </si>
+  <si>
+    <t>channing</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>SUNGNATH</t>
+  </si>
+  <si>
+    <t>gard</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>dinoma</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>WERDAR</t>
+  </si>
+  <si>
+    <t>dergast</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>BETFERTH</t>
+  </si>
+  <si>
+    <t>grimu</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>CHELLSTAN</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>SIMARD</t>
+  </si>
+  <si>
+    <t>melisande</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>DRASERE</t>
+  </si>
+  <si>
+    <t>tancrède</t>
+  </si>
+  <si>
+    <t>KEV-MARMA</t>
+  </si>
+  <si>
+    <t>enzo</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>PHANEUF</t>
+  </si>
+  <si>
+    <t>etoile</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>CAISEN</t>
+  </si>
+  <si>
+    <t>sonfortinan</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>TURCOTTE</t>
+  </si>
+  <si>
+    <t>olivie</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>RIEMARK</t>
+  </si>
+  <si>
+    <t>londer</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>CHARRON</t>
+  </si>
+  <si>
+    <t>ogier</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>SALETT</t>
+  </si>
+  <si>
+    <t>julien</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DUBOIS</t>
+  </si>
+  <si>
+    <t>eulalie</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>GRIMSU</t>
+  </si>
+  <si>
+    <t>valentin</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>BATER</t>
+  </si>
+  <si>
+    <t>octave</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>rené</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ETHELE</t>
+  </si>
+  <si>
+    <t>retan</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>GAULIN</t>
+  </si>
+  <si>
+    <t>joanna</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>FORTHDA</t>
+  </si>
+  <si>
+    <t>chardbeorn</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>LIDAS</t>
+  </si>
+  <si>
+    <t>samlinbeorn</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>GARDJEN</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>LIAMNI</t>
+  </si>
+  <si>
+    <t>marion</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>FRID-BAR</t>
+  </si>
+  <si>
+    <t>merlon</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>GERVAIS</t>
+  </si>
+  <si>
+    <t>frédéric</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>SERE</t>
+  </si>
+  <si>
+    <t>wilya</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>DOIRON</t>
+  </si>
+  <si>
+    <t>warrane</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>SAVOIE</t>
+  </si>
+  <si>
+    <t>emmeline</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>HUOT</t>
+  </si>
+  <si>
+    <t>agate</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>DUMONT</t>
+  </si>
+  <si>
+    <t>blondelle</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>fealty</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>DAGUTH</t>
+  </si>
+  <si>
+    <t>crisze</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>LABRECQUE</t>
+  </si>
+  <si>
+    <t>aya</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Muller</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>ECHEVERRI</t>
+  </si>
+  <si>
+    <t>aubrey</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>LYCEO</t>
   </si>
   <si>
     <t>aspell</t>
   </si>
   <si>
-    <t>Amphi 1</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>ANGÉLIL</t>
+  </si>
+  <si>
+    <t>zoé</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>SICARD</t>
+  </si>
+  <si>
+    <t>francoise</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>FORTHCROW</t>
+  </si>
+  <si>
+    <t>locchell</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>POULIOTTE</t>
+  </si>
+  <si>
+    <t>mignonette</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>PARISEAU</t>
+  </si>
+  <si>
+    <t>patrice</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>CHARRETTE</t>
+  </si>
+  <si>
+    <t>voleta</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>VILLENEUVE</t>
+  </si>
+  <si>
+    <t>honoré</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>BUREAU</t>
+  </si>
+  <si>
+    <t>jeanette</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>DAREN</t>
+  </si>
+  <si>
+    <t>nyahew</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>HOLRET</t>
+  </si>
+  <si>
+    <t>leechard</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>BEAUCOUIN</t>
+  </si>
+  <si>
+    <t>antoine</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>KIMVIAGAR</t>
+  </si>
+  <si>
+    <t>swithforth</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>PAULET</t>
+  </si>
+  <si>
+    <t>alain</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>MUELDOHELM</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>EADMOND</t>
+  </si>
+  <si>
+    <t>edan</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>WYN</t>
+  </si>
+  <si>
+    <t>gaëtan</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>BERBANDO</t>
+  </si>
+  <si>
+    <t>minsul</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>PERRAULT</t>
+  </si>
+  <si>
+    <t>aurore</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>LAYFERUM</t>
+  </si>
+  <si>
+    <t>yajai</t>
+  </si>
+  <si>
+    <t>ST-JEAN</t>
+  </si>
+  <si>
+    <t>nathalie</t>
+  </si>
+  <si>
+    <t>Amphi 2</t>
+  </si>
+  <si>
+    <t>SANSIG</t>
+  </si>
+  <si>
+    <t>terrah</t>
+  </si>
+  <si>
+    <t>LEBLANC</t>
+  </si>
+  <si>
+    <t>franchon</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>jaty</t>
+  </si>
+  <si>
+    <t>DINOBETHFREA</t>
+  </si>
+  <si>
+    <t>kairor</t>
+  </si>
+  <si>
+    <t>THONYDA</t>
+  </si>
+  <si>
+    <t>macnald</t>
+  </si>
+  <si>
+    <t>RUTHHES</t>
+  </si>
+  <si>
+    <t>kasa</t>
+  </si>
+  <si>
+    <t>ROYRICELF</t>
+  </si>
+  <si>
+    <t>camille</t>
+  </si>
+  <si>
+    <t>FRANÇOISE</t>
+  </si>
+  <si>
+    <t>boivin</t>
+  </si>
+  <si>
+    <t>NASAM</t>
+  </si>
+  <si>
+    <t>bryce</t>
+  </si>
+  <si>
+    <t>BOISVERT</t>
+  </si>
+  <si>
+    <t>pryor</t>
+  </si>
+  <si>
+    <t>ROYAN</t>
+  </si>
+  <si>
+    <t>brassonbar</t>
+  </si>
+  <si>
+    <t>LEVASSEUR</t>
+  </si>
+  <si>
+    <t>fiacre</t>
   </si>
   <si>
     <t>DAOUST</t>
@@ -79,121 +760,10 @@
     <t>georgette</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>PELOC</t>
-  </si>
-  <si>
-    <t>hepaul</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>SANSIG</t>
-  </si>
-  <si>
-    <t>terrah</t>
-  </si>
-  <si>
-    <t>RIEMARK</t>
-  </si>
-  <si>
-    <t>londer</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>LEVASSEUR</t>
-  </si>
-  <si>
-    <t>fiacre</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>GAULIN</t>
-  </si>
-  <si>
-    <t>joanna</t>
-  </si>
-  <si>
-    <t>SICARD</t>
-  </si>
-  <si>
-    <t>francoise</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CHARRON</t>
-  </si>
-  <si>
-    <t>ogier</t>
-  </si>
-  <si>
-    <t>BETFERTH</t>
-  </si>
-  <si>
-    <t>grimu</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>BOISVERT</t>
-  </si>
-  <si>
-    <t>pryor</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ROYAN</t>
-  </si>
-  <si>
-    <t>brassonbar</t>
-  </si>
-  <si>
-    <t>PARENT</t>
-  </si>
-  <si>
-    <t>fealty</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>PHANEUF</t>
-  </si>
-  <si>
-    <t>etoile</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>BRYTCWEN</t>
+  </si>
+  <si>
+    <t>elisa</t>
   </si>
   <si>
     <t>NYADON</t>
@@ -202,127 +772,22 @@
     <t>arnaud</t>
   </si>
   <si>
-    <t>WERDAR</t>
-  </si>
-  <si>
-    <t>dergast</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>BATER</t>
-  </si>
-  <si>
-    <t>octave</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>SERE</t>
-  </si>
-  <si>
-    <t>wilya</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>BEAUCOUIN</t>
-  </si>
-  <si>
-    <t>antoine</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>SAVOIE</t>
-  </si>
-  <si>
-    <t>emmeline</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>LACROIX</t>
-  </si>
-  <si>
-    <t>vivienne</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>DUBOIS</t>
-  </si>
-  <si>
-    <t>eulalie</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>ORDROL</t>
   </si>
   <si>
     <t>dica</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>CYNBETH</t>
-  </si>
-  <si>
-    <t>pepette</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>DINOBETHFREA</t>
-  </si>
-  <si>
-    <t>kairor</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>BUREAU</t>
-  </si>
-  <si>
-    <t>jeanette</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>BANDOGAR</t>
-  </si>
-  <si>
-    <t>ronjo</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>AUDIBERT</t>
-  </si>
-  <si>
-    <t>channing</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>ROSSIGNOL</t>
+  </si>
+  <si>
+    <t>melville</t>
+  </si>
+  <si>
+    <t>ADLER</t>
+  </si>
+  <si>
+    <t>morgana</t>
   </si>
   <si>
     <t>FOUCAULT</t>
@@ -331,430 +796,10 @@
     <t>laure</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>HOLRET</t>
-  </si>
-  <si>
-    <t>leechard</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>GERVAIS</t>
-  </si>
-  <si>
-    <t>frédéric</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>BRYTFREA</t>
-  </si>
-  <si>
-    <t>anne cécile</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>CLAVET</t>
-  </si>
-  <si>
-    <t>russel</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>KIMVIAGAR</t>
-  </si>
-  <si>
-    <t>swithforth</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>WYN</t>
-  </si>
-  <si>
-    <t>gaëtan</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>RATTÉ</t>
-  </si>
-  <si>
-    <t>jeanne</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>FRID-BAR</t>
-  </si>
-  <si>
-    <t>merlon</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>MUELDOHELM</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>PAULET</t>
-  </si>
-  <si>
-    <t>alain</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>CHELLSTAN</t>
-  </si>
-  <si>
-    <t>gone</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>SUNGNATH</t>
-  </si>
-  <si>
-    <t>gard</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>CHARRETTE</t>
-  </si>
-  <si>
-    <t>voleta</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>NASAM</t>
-  </si>
-  <si>
-    <t>bryce</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>BRYTCWEN</t>
-  </si>
-  <si>
-    <t>elisa</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>PARISEAU</t>
-  </si>
-  <si>
-    <t>patrice</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>FORTHDA</t>
-  </si>
-  <si>
-    <t>chardbeorn</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>POULIOTTE</t>
-  </si>
-  <si>
-    <t>mignonette</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>ETHELE</t>
-  </si>
-  <si>
-    <t>retan</t>
-  </si>
-  <si>
     <t>ADELWINE</t>
   </si>
   <si>
     <t>wardwil</t>
-  </si>
-  <si>
-    <t>Amphi 2</t>
-  </si>
-  <si>
-    <t>ARISUM</t>
-  </si>
-  <si>
-    <t>zonea</t>
-  </si>
-  <si>
-    <t>BERBANDO</t>
-  </si>
-  <si>
-    <t>minsul</t>
-  </si>
-  <si>
-    <t>THONYDA</t>
-  </si>
-  <si>
-    <t>macnald</t>
-  </si>
-  <si>
-    <t>CAISEN</t>
-  </si>
-  <si>
-    <t>sonfortinan</t>
-  </si>
-  <si>
-    <t>ST-JEAN</t>
-  </si>
-  <si>
-    <t>nathalie</t>
-  </si>
-  <si>
-    <t>LEBLANC</t>
-  </si>
-  <si>
-    <t>franchon</t>
-  </si>
-  <si>
-    <t>FRANÇOISE</t>
-  </si>
-  <si>
-    <t>boivin</t>
-  </si>
-  <si>
-    <t>DRASERE</t>
-  </si>
-  <si>
-    <t>tancrède</t>
-  </si>
-  <si>
-    <t>GARDJEN</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>ADLER</t>
-  </si>
-  <si>
-    <t>morgana</t>
-  </si>
-  <si>
-    <t>dcbxfb</t>
-  </si>
-  <si>
-    <t>xb</t>
-  </si>
-  <si>
-    <t>ROSSIGNOL</t>
-  </si>
-  <si>
-    <t>melville</t>
-  </si>
-  <si>
-    <t>HUOT</t>
-  </si>
-  <si>
-    <t>agate</t>
-  </si>
-  <si>
-    <t>SIMARD</t>
-  </si>
-  <si>
-    <t>melisande</t>
-  </si>
-  <si>
-    <t>VILLENEUVE</t>
-  </si>
-  <si>
-    <t>honoré</t>
-  </si>
-  <si>
-    <t>LAU</t>
-  </si>
-  <si>
-    <t>jaty</t>
-  </si>
-  <si>
-    <t>LIDAS</t>
-  </si>
-  <si>
-    <t>samlinbeorn</t>
-  </si>
-  <si>
-    <t>DESROCHES</t>
-  </si>
-  <si>
-    <t>francis</t>
-  </si>
-  <si>
-    <t>KEV-MARMA</t>
-  </si>
-  <si>
-    <t>enzo</t>
-  </si>
-  <si>
-    <t>TURCOTTE</t>
-  </si>
-  <si>
-    <t>olivie</t>
-  </si>
-  <si>
-    <t>RUTHHES</t>
-  </si>
-  <si>
-    <t>kasa</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>dinoma</t>
-  </si>
-  <si>
-    <t>PERRAULT</t>
-  </si>
-  <si>
-    <t>aurore</t>
-  </si>
-  <si>
-    <t>FORTHCROW</t>
-  </si>
-  <si>
-    <t>locchell</t>
-  </si>
-  <si>
-    <t>EADMOND</t>
-  </si>
-  <si>
-    <t>edan</t>
-  </si>
-  <si>
-    <t>DAREN</t>
-  </si>
-  <si>
-    <t>nyahew</t>
-  </si>
-  <si>
-    <t>ROYRICELF</t>
-  </si>
-  <si>
-    <t>camille</t>
-  </si>
-  <si>
-    <t>SALETT</t>
-  </si>
-  <si>
-    <t>julien</t>
-  </si>
-  <si>
-    <t>ANGÉLIL</t>
-  </si>
-  <si>
-    <t>zoé</t>
-  </si>
-  <si>
-    <t>GRIMSU</t>
-  </si>
-  <si>
-    <t>valentin</t>
-  </si>
-  <si>
-    <t>LABRECQUE</t>
-  </si>
-  <si>
-    <t>aya</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>rené</t>
-  </si>
-  <si>
-    <t>DAGUTH</t>
-  </si>
-  <si>
-    <t>crisze</t>
-  </si>
-  <si>
-    <t>dcfncvnn</t>
-  </si>
-  <si>
-    <t>cgncgn</t>
-  </si>
-  <si>
-    <t>LIAMNI</t>
-  </si>
-  <si>
-    <t>marion</t>
-  </si>
-  <si>
-    <t>DOIRON</t>
-  </si>
-  <si>
-    <t>warrane</t>
-  </si>
-  <si>
-    <t>Muller</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>ARSAN</t>
-  </si>
-  <si>
-    <t>deonmannen</t>
-  </si>
-  <si>
-    <t>DUMONT</t>
-  </si>
-  <si>
-    <t>blondelle</t>
-  </si>
-  <si>
-    <t>LAYFERUM</t>
-  </si>
-  <si>
-    <t>yajai</t>
-  </si>
-  <si>
-    <t>ECHEVERRI</t>
-  </si>
-  <si>
-    <t>aubrey</t>
   </si>
 </sst>
 </file>
@@ -836,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -901,45 +946,45 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +992,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -962,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -970,59 +1015,59 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -1031,113 +1076,113 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -1146,53 +1191,53 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1200,7 +1245,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>60</v>
@@ -1212,41 +1257,41 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
@@ -1258,10 +1303,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -1281,708 +1326,708 @@
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>162</v>
@@ -1991,955 +2036,909 @@
         <v>163</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2953,13 +2952,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.03515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.8671875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3025,22 +3024,22 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -3048,25 +3047,25 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -3077,7 +3076,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -3092,7 +3091,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -3103,22 +3102,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -3126,25 +3125,25 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -3152,16 +3151,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -3170,7 +3169,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -3178,25 +3177,25 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -3204,25 +3203,25 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -3230,25 +3229,25 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -3256,25 +3255,25 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -3282,16 +3281,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -3300,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -3308,25 +3307,25 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -3334,25 +3333,25 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -3363,7 +3362,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>60</v>
@@ -3375,10 +3374,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -3386,25 +3385,25 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -3412,10 +3411,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
@@ -3427,10 +3426,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>16</v>
@@ -3453,10 +3452,10 @@
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
@@ -3464,25 +3463,25 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
@@ -3490,25 +3489,25 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
@@ -3516,25 +3515,25 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -3542,25 +3541,25 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>16</v>
@@ -3568,25 +3567,25 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>16</v>
@@ -3594,25 +3593,25 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>16</v>
@@ -3620,25 +3619,25 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>16</v>
@@ -3646,25 +3645,25 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>16</v>
@@ -3672,25 +3671,25 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>16</v>
@@ -3698,25 +3697,25 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>16</v>
@@ -3724,25 +3723,25 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
@@ -3750,25 +3749,25 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>16</v>
@@ -3776,25 +3775,25 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
@@ -3802,25 +3801,25 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>16</v>
@@ -3828,25 +3827,25 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>16</v>
@@ -3854,25 +3853,25 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -3880,25 +3879,25 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>16</v>
@@ -3906,25 +3905,25 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>16</v>
@@ -3932,25 +3931,25 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>16</v>
@@ -3958,25 +3957,25 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>16</v>
@@ -3984,25 +3983,25 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>16</v>
@@ -4010,25 +4009,25 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>16</v>
@@ -4036,25 +4035,25 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>16</v>
@@ -4062,25 +4061,25 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>16</v>
@@ -4088,25 +4087,25 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>16</v>
@@ -4114,25 +4113,25 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>16</v>
@@ -4140,25 +4139,25 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>16</v>
@@ -4166,25 +4165,25 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>16</v>
@@ -4192,25 +4191,25 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>16</v>
@@ -4218,27 +4217,521 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4252,13 +4745,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.03515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.8671875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="1.03515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4272,22 +4765,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -4301,19 +4794,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -4321,25 +4814,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -4350,22 +4843,22 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -4376,22 +4869,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -4399,25 +4892,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -4425,25 +4918,25 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -4451,25 +4944,25 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -4477,25 +4970,25 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -4503,25 +4996,25 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -4529,25 +5022,25 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -4555,25 +5048,25 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -4581,25 +5074,25 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -4607,25 +5100,25 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -4639,16 +5132,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>90</v>
@@ -4659,25 +5152,25 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -4685,25 +5178,25 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -4714,22 +5207,22 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>16</v>
@@ -4737,25 +5230,25 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
@@ -4763,25 +5256,25 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
@@ -4789,573 +5282,27 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="2" t="s">
         <v>16</v>
       </c>
     </row>
